--- a/data/trans_orig/P9_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P9_2_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF62B107-E88D-432E-965F-C511EA77F8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD571100-CC57-4952-86B6-FF3C9CEF19AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A4D6873-889A-4AAF-9856-1987D0C495DB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2089EEF-72FC-4232-9B41-0B8CBDB55887}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="509">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>3,93%</t>
@@ -149,1411 +149,1423 @@
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,2%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>90,75%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>15,54%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>84,46%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>77,44%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
   </si>
   <si>
     <t>31,96%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>68,04%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>14,14%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>85,86%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4498C704-4C1C-403D-A72A-6BB3B6085A24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A35C67-2D52-4128-8F28-C2DA0F569302}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2587,10 +2599,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2617,13 @@
         <v>483941</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>437</v>
@@ -2620,13 +2632,13 @@
         <v>449583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>887</v>
@@ -2635,13 +2647,13 @@
         <v>933525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,7 +2709,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2709,13 +2721,13 @@
         <v>52710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -2724,13 +2736,13 @@
         <v>62756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -2739,13 +2751,13 @@
         <v>115467</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,13 +2772,13 @@
         <v>334000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>334</v>
@@ -3097,7 +3109,7 @@
         <v>5766</v>
       </c>
       <c r="N23" s="7">
-        <v>5894634</v>
+        <v>5894635</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>139</v>
@@ -3148,7 +3160,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3184,7 +3196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511A32E1-46A6-4BB7-95AF-F4A08E0BB107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517FE8DA-74EC-47B0-B41B-AA6BC212B21D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3621,10 +3633,10 @@
         <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -3633,13 +3645,13 @@
         <v>79834</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -3648,13 +3660,13 @@
         <v>121037</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3681,13 @@
         <v>640660</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>592</v>
@@ -3684,13 +3696,13 @@
         <v>630047</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1203</v>
@@ -3699,13 +3711,13 @@
         <v>1270707</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3785,13 @@
         <v>49029</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -3788,13 +3800,13 @@
         <v>95043</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3803,13 +3815,13 @@
         <v>144072</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3836,13 @@
         <v>565588</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>453</v>
@@ -3839,13 +3851,13 @@
         <v>521156</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>956</v>
@@ -3854,13 +3866,13 @@
         <v>1086744</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,7 +3928,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3928,13 +3940,13 @@
         <v>67536</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -3943,13 +3955,13 @@
         <v>122988</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -3958,13 +3970,13 @@
         <v>190524</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3991,13 @@
         <v>361893</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>291</v>
@@ -3994,13 +4006,13 @@
         <v>322900</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>620</v>
@@ -4009,13 +4021,13 @@
         <v>684793</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4095,13 @@
         <v>184263</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>339</v>
@@ -4098,13 +4110,13 @@
         <v>363135</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>500</v>
@@ -4113,13 +4125,13 @@
         <v>547398</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4146,13 @@
         <v>375374</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>355</v>
@@ -4149,13 +4161,13 @@
         <v>379840</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>698</v>
@@ -4164,13 +4176,13 @@
         <v>755214</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4250,13 @@
         <v>376521</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>659</v>
@@ -4253,13 +4265,13 @@
         <v>710163</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>1002</v>
@@ -4268,13 +4280,13 @@
         <v>1086684</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,28 +4301,28 @@
         <v>3049337</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>2636</v>
       </c>
       <c r="I23" s="7">
-        <v>2844201</v>
+        <v>2844200</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>5501</v>
@@ -4319,13 +4331,13 @@
         <v>5893538</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4364,7 @@
         <v>3295</v>
       </c>
       <c r="I24" s="7">
-        <v>3554364</v>
+        <v>3554363</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4403,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211E2BD5-9B5E-4D7F-80AF-64060DBA4CEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7215819F-0FC3-4CF4-9DD4-FC9166CB4476}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4420,7 +4432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4527,13 +4539,13 @@
         <v>7627</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4542,13 +4554,13 @@
         <v>11921</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4557,13 +4569,13 @@
         <v>19549</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4590,13 @@
         <v>411836</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4593,13 +4605,13 @@
         <v>383834</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>778</v>
@@ -4608,13 +4620,13 @@
         <v>795669</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4694,13 @@
         <v>20578</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4697,13 +4709,13 @@
         <v>29671</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -4715,10 +4727,10 @@
         <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4745,13 @@
         <v>569918</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>550</v>
@@ -4748,13 +4760,13 @@
         <v>533873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>1098</v>
@@ -4766,10 +4778,10 @@
         <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4849,13 @@
         <v>27942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4852,13 +4864,13 @@
         <v>50166</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -4867,13 +4879,13 @@
         <v>78108</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4900,13 @@
         <v>641155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -4903,13 +4915,13 @@
         <v>611220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>1229</v>
@@ -4921,10 +4933,10 @@
         <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5004,13 @@
         <v>59170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -5007,13 +5019,13 @@
         <v>81462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -5022,13 +5034,13 @@
         <v>140633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5055,13 @@
         <v>586878</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>526</v>
@@ -5058,28 +5070,28 @@
         <v>567615</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
       </c>
       <c r="N14" s="7">
-        <v>1154492</v>
+        <v>1154493</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,7 +5133,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5135,7 +5147,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5147,13 +5159,13 @@
         <v>57649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -5162,13 +5174,13 @@
         <v>116067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -5177,13 +5189,13 @@
         <v>173716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5210,13 @@
         <v>420269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>331</v>
@@ -5213,13 +5225,13 @@
         <v>380782</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>706</v>
@@ -5228,13 +5240,13 @@
         <v>801051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5314,13 @@
         <v>140884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>274</v>
@@ -5317,13 +5329,13 @@
         <v>338269</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>426</v>
@@ -5332,13 +5344,13 @@
         <v>479153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5365,13 @@
         <v>450444</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>381</v>
@@ -5368,13 +5380,13 @@
         <v>439662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>856</v>
@@ -5383,13 +5395,13 @@
         <v>890106</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5469,13 @@
         <v>313851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>540</v>
@@ -5472,13 +5484,13 @@
         <v>627556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>847</v>
@@ -5487,13 +5499,13 @@
         <v>941407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5520,13 @@
         <v>3080499</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>2798</v>
@@ -5523,13 +5535,13 @@
         <v>2916986</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M23" s="7">
         <v>5722</v>
@@ -5538,13 +5550,13 @@
         <v>5997485</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +5634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA2CA93-8314-4B24-A840-97F005EDDE1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FE791B-E36A-493F-89A3-A93837A00509}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5901,13 +5913,13 @@
         <v>30875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>403</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5916,13 +5928,13 @@
         <v>25215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -5931,13 +5943,13 @@
         <v>56091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5964,13 @@
         <v>397521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -5967,13 +5979,13 @@
         <v>472769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5982,13 +5994,13 @@
         <v>870289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6068,13 @@
         <v>38424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -6071,13 +6083,13 @@
         <v>60424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M10" s="7">
         <v>116</v>
@@ -6086,13 +6098,13 @@
         <v>98848</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6119,13 @@
         <v>518828</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H11" s="7">
         <v>763</v>
@@ -6122,13 +6134,13 @@
         <v>523052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M11" s="7">
         <v>1276</v>
@@ -6137,13 +6149,13 @@
         <v>1041879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6223,13 @@
         <v>87047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -6226,13 +6238,13 @@
         <v>112691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -6241,13 +6253,13 @@
         <v>199738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6274,13 @@
         <v>635816</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -6277,13 +6289,13 @@
         <v>633900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>1564</v>
@@ -6292,13 +6304,13 @@
         <v>1269716</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>452</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6366,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6366,13 +6378,13 @@
         <v>114902</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>218</v>
@@ -6381,13 +6393,13 @@
         <v>134716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M16" s="7">
         <v>333</v>
@@ -6396,13 +6408,13 @@
         <v>249618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6429,13 @@
         <v>485255</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H17" s="7">
         <v>784</v>
@@ -6432,13 +6444,13 @@
         <v>462347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M17" s="7">
         <v>1332</v>
@@ -6447,13 +6459,13 @@
         <v>947602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6533,13 @@
         <v>164243</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>702</v>
@@ -6536,13 +6548,13 @@
         <v>386057</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>941</v>
@@ -6551,13 +6563,13 @@
         <v>550300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6584,13 @@
         <v>531510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H20" s="7">
         <v>1005</v>
@@ -6587,13 +6599,13 @@
         <v>640081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M20" s="7">
         <v>1791</v>
@@ -6602,13 +6614,13 @@
         <v>1171592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6688,13 @@
         <v>435493</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>1196</v>
@@ -6691,13 +6703,13 @@
         <v>733867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>1683</v>
@@ -6706,13 +6718,13 @@
         <v>1169360</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6739,13 @@
         <v>2946607</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>213</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>4165</v>
@@ -6742,28 +6754,28 @@
         <v>3072342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
         <v>7050</v>
       </c>
       <c r="N23" s="7">
-        <v>6018948</v>
+        <v>6018949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6817,7 @@
         <v>8733</v>
       </c>
       <c r="N24" s="7">
-        <v>7188308</v>
+        <v>7188309</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P9_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P9_2_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD571100-CC57-4952-86B6-FF3C9CEF19AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FFEA9D-A442-4733-8DE6-CDA536FBD772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2089EEF-72FC-4232-9B41-0B8CBDB55887}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{674074B1-78C9-4F5B-A352-AAA21E723185}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="505">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>3,97%</t>
+    <t>3,98%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,03%</t>
+    <t>96,02%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -116,19 +116,19 @@
     <t>95,73%</t>
   </si>
   <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,17%</t>
+    <t>5,02%</t>
   </si>
   <si>
     <t>9,32%</t>
@@ -158,19 +158,19 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>93,05%</t>
@@ -179,16 +179,16 @@
     <t>90,68%</t>
   </si>
   <si>
-    <t>94,83%</t>
+    <t>94,98%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1215 +197,1209 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,37%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>91,75%</t>
   </si>
   <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>88,45%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
     <t>19,15%</t>
   </si>
   <si>
@@ -1427,9 +1421,6 @@
     <t>20,85%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
     <t>22,99%</t>
   </si>
   <si>
@@ -1455,9 +1446,6 @@
   </si>
   <si>
     <t>77,01%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
   </si>
   <si>
     <t>23,61%</t>
@@ -1977,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A35C67-2D52-4128-8F28-C2DA0F569302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57307D3A-E880-4066-9C61-5A3992A7E5B1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2724,10 +2712,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -2736,13 +2724,13 @@
         <v>62756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -2751,13 +2739,13 @@
         <v>115467</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2760,13 @@
         <v>334000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>334</v>
@@ -2787,13 +2775,13 @@
         <v>341230</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>671</v>
@@ -2802,13 +2790,13 @@
         <v>675229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,7 +2852,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2876,13 +2864,13 @@
         <v>119537</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>231</v>
@@ -2891,13 +2879,13 @@
         <v>243390</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>356</v>
@@ -2906,13 +2894,13 @@
         <v>362928</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2915,13 @@
         <v>382929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>430</v>
@@ -2942,13 +2930,13 @@
         <v>433452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>828</v>
@@ -2957,13 +2945,13 @@
         <v>816380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3019,13 @@
         <v>267438</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>474</v>
@@ -3046,13 +3034,13 @@
         <v>493667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>745</v>
@@ -3061,13 +3049,13 @@
         <v>761106</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,16 +3067,16 @@
         <v>2943</v>
       </c>
       <c r="D23" s="7">
-        <v>3009106</v>
+        <v>3009105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2823</v>
@@ -3097,13 +3085,13 @@
         <v>2885531</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5766</v>
@@ -3112,13 +3100,13 @@
         <v>5894635</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,7 +3118,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3174,7 +3162,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517FE8DA-74EC-47B0-B41B-AA6BC212B21D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC542F11-6F02-4A7D-B9E6-C8FE0BFB36BF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3213,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3320,13 +3308,13 @@
         <v>12477</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3335,13 +3323,13 @@
         <v>18729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3350,13 +3338,13 @@
         <v>31206</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3359,13 @@
         <v>441669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>403</v>
@@ -3386,13 +3374,13 @@
         <v>411501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -3401,13 +3389,13 @@
         <v>853170</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3463,13 @@
         <v>22013</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3490,13 +3478,13 @@
         <v>30434</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3505,13 +3493,13 @@
         <v>52448</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3514,13 @@
         <v>664153</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>542</v>
@@ -3541,13 +3529,13 @@
         <v>578757</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1188</v>
@@ -3556,13 +3544,13 @@
         <v>1242910</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3618,13 @@
         <v>41203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -3645,13 +3633,13 @@
         <v>79834</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -3660,13 +3648,13 @@
         <v>121037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3669,13 @@
         <v>640660</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>592</v>
@@ -3696,13 +3684,13 @@
         <v>630047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1203</v>
@@ -3711,13 +3699,13 @@
         <v>1270707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3773,13 @@
         <v>49029</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -3800,13 +3788,13 @@
         <v>95043</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3815,13 +3803,13 @@
         <v>144072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3824,13 @@
         <v>565588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>453</v>
@@ -3851,13 +3839,13 @@
         <v>521156</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>956</v>
@@ -3866,13 +3854,13 @@
         <v>1086744</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3928,13 @@
         <v>67536</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -3955,13 +3943,13 @@
         <v>122988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -3970,13 +3958,13 @@
         <v>190524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3979,13 @@
         <v>361893</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>291</v>
@@ -4006,13 +3994,13 @@
         <v>322900</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>620</v>
@@ -4021,13 +4009,13 @@
         <v>684793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,7 +4071,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4095,13 +4083,13 @@
         <v>184263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>339</v>
@@ -4110,13 +4098,13 @@
         <v>363135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>500</v>
@@ -4125,13 +4113,13 @@
         <v>547398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4134,13 @@
         <v>375374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>355</v>
@@ -4161,13 +4149,13 @@
         <v>379840</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>698</v>
@@ -4176,13 +4164,13 @@
         <v>755214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4238,13 @@
         <v>376521</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>659</v>
@@ -4265,13 +4253,13 @@
         <v>710163</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>1002</v>
@@ -4280,13 +4268,13 @@
         <v>1086684</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,28 +4289,28 @@
         <v>3049337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>2636</v>
       </c>
       <c r="I23" s="7">
-        <v>2844200</v>
+        <v>2844201</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>5501</v>
@@ -4331,13 +4319,13 @@
         <v>5893538</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,7 +4352,7 @@
         <v>3295</v>
       </c>
       <c r="I24" s="7">
-        <v>3554363</v>
+        <v>3554364</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4393,7 +4381,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7215819F-0FC3-4CF4-9DD4-FC9166CB4476}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693A50ED-C613-48E8-A2DD-D544B246E2A7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4432,7 +4420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4539,13 +4527,13 @@
         <v>7627</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4554,13 +4542,13 @@
         <v>11921</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4569,13 +4557,13 @@
         <v>19549</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4578,13 @@
         <v>411836</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4605,13 +4593,13 @@
         <v>383834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>778</v>
@@ -4620,13 +4608,13 @@
         <v>795669</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4682,13 @@
         <v>20578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4709,13 +4697,13 @@
         <v>29671</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -4724,13 +4712,13 @@
         <v>50249</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4733,13 @@
         <v>569918</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>550</v>
@@ -4760,13 +4748,13 @@
         <v>533873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>1098</v>
@@ -4775,13 +4763,13 @@
         <v>1103791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4837,13 @@
         <v>27942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>294</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4864,13 +4852,13 @@
         <v>50166</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -4879,13 +4867,13 @@
         <v>78108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4888,13 @@
         <v>641155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -4915,13 +4903,13 @@
         <v>611220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>1229</v>
@@ -4930,13 +4918,13 @@
         <v>1252375</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4992,13 @@
         <v>59170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -5019,13 +5007,13 @@
         <v>81462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -5034,13 +5022,13 @@
         <v>140633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5043,13 @@
         <v>586878</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>526</v>
@@ -5070,28 +5058,28 @@
         <v>567615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
       </c>
       <c r="N14" s="7">
-        <v>1154493</v>
+        <v>1154492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,7 +5121,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5159,13 +5147,13 @@
         <v>57649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -5174,13 +5162,13 @@
         <v>116067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -5189,13 +5177,13 @@
         <v>173716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5198,13 @@
         <v>420269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>331</v>
@@ -5225,13 +5213,13 @@
         <v>380782</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>706</v>
@@ -5240,13 +5228,13 @@
         <v>801051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,7 +5290,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5314,13 +5302,13 @@
         <v>140884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>274</v>
@@ -5329,13 +5317,13 @@
         <v>338269</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>426</v>
@@ -5344,13 +5332,13 @@
         <v>479153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5353,13 @@
         <v>450444</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>381</v>
@@ -5380,13 +5368,13 @@
         <v>439662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>856</v>
@@ -5395,13 +5383,13 @@
         <v>890106</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5457,13 @@
         <v>313851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>540</v>
@@ -5484,13 +5472,13 @@
         <v>627556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>847</v>
@@ -5499,13 +5487,13 @@
         <v>941407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5508,13 @@
         <v>3080499</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>2798</v>
@@ -5535,13 +5523,13 @@
         <v>2916986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>83</v>
       </c>
       <c r="M23" s="7">
         <v>5722</v>
@@ -5612,7 +5600,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5634,7 +5622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FE791B-E36A-493F-89A3-A93837A00509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3C1C78-536E-48B8-9144-D996220BC2B1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5776,10 +5764,10 @@
         <v>389</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -5788,13 +5776,13 @@
         <v>14764</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,10 +5797,10 @@
         <v>377679</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5824,13 +5812,13 @@
         <v>340193</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>399</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>371</v>
@@ -5839,13 +5827,13 @@
         <v>717872</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5901,13 @@
         <v>30875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>404</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5928,13 +5916,13 @@
         <v>25215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -5943,13 +5931,13 @@
         <v>56091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5952,13 @@
         <v>397521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -5979,13 +5967,13 @@
         <v>472769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5994,13 +5982,13 @@
         <v>870289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6056,13 @@
         <v>38424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -6083,13 +6071,13 @@
         <v>60424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>116</v>
@@ -6098,13 +6086,13 @@
         <v>98848</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6107,13 @@
         <v>518828</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>763</v>
@@ -6134,13 +6122,13 @@
         <v>523052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>1276</v>
@@ -6149,13 +6137,13 @@
         <v>1041879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6211,13 @@
         <v>87047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -6238,13 +6226,13 @@
         <v>112691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -6253,13 +6241,13 @@
         <v>199738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6262,13 @@
         <v>635816</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -6289,13 +6277,13 @@
         <v>633900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M14" s="7">
         <v>1564</v>
@@ -6304,13 +6292,13 @@
         <v>1269716</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6366,13 @@
         <v>114902</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>218</v>
@@ -6393,13 +6381,13 @@
         <v>134716</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M16" s="7">
         <v>333</v>
@@ -6408,13 +6396,13 @@
         <v>249618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>462</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6417,13 @@
         <v>485255</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>784</v>
@@ -6444,13 +6432,13 @@
         <v>462347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>1332</v>
@@ -6459,13 +6447,13 @@
         <v>947602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6509,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6533,13 +6521,13 @@
         <v>164243</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>702</v>
@@ -6548,13 +6536,13 @@
         <v>386057</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>941</v>
@@ -6563,13 +6551,13 @@
         <v>550300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6572,13 @@
         <v>531510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>1005</v>
@@ -6599,13 +6587,13 @@
         <v>640081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>1791</v>
@@ -6614,13 +6602,13 @@
         <v>1171592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6676,13 @@
         <v>435493</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H22" s="7">
         <v>1196</v>
@@ -6703,13 +6691,13 @@
         <v>733867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M22" s="7">
         <v>1683</v>
@@ -6718,13 +6706,13 @@
         <v>1169360</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6727,13 @@
         <v>2946607</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>4165</v>
@@ -6754,13 +6742,13 @@
         <v>3072342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>7050</v>
@@ -6769,13 +6757,13 @@
         <v>6018949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,7 +6819,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
